--- a/artfynd/Norrnäs artfynd.xlsx
+++ b/artfynd/Norrnäs artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74543224</v>
+        <v>96203024</v>
       </c>
       <c r="B2" t="n">
-        <v>91263</v>
+        <v>80083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,37 +691,40 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vikströms-Gravabergsmyran, Ång</t>
+          <t>norrnäs, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>694997</v>
+        <v>695021</v>
       </c>
       <c r="R2" t="n">
-        <v>7086245</v>
+        <v>7085824</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -745,12 +748,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2021-06-06</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2018-11-01</t>
+          <t>2021-06-06</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -759,28 +762,33 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Anna Hallmén</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96203024</v>
+        <v>74543224</v>
       </c>
       <c r="B3" t="n">
-        <v>80083</v>
+        <v>91263</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,40 +796,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>norrnäs, Ång</t>
+          <t>Vikströms-Gravabergsmyran, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695021</v>
+        <v>694997</v>
       </c>
       <c r="R3" t="n">
-        <v>7085824</v>
+        <v>7086245</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -845,12 +850,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-06-06</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-06-06</t>
+          <t>2018-11-01</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -859,26 +864,21 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Anna Hallmén</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Anna Hallmén</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
